--- a/NformTester/NformTester/Keywordscripts/600.40.20.90_UserAndGroupAdministratorGroupManagement.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.40.20.90_UserAndGroupAdministratorGroupManagement.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="2535" windowWidth="18195" windowHeight="14070"/>
@@ -1200,7 +1200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7544" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7585" uniqueCount="822">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4673,10 +4673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O202"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4891,7 +4891,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="3">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -6650,7 +6650,7 @@
       <c r="M64" s="4"/>
       <c r="N64" s="12"/>
     </row>
-    <row r="65" spans="3:14">
+    <row r="65" spans="3:15">
       <c r="C65" s="4">
         <v>64</v>
       </c>
@@ -6661,12 +6661,12 @@
         <v>235</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H65" s="14"/>
+      <c r="H65" s="19"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -6674,7 +6674,7 @@
       <c r="M65" s="4"/>
       <c r="N65" s="12"/>
     </row>
-    <row r="66" spans="3:14">
+    <row r="66" spans="3:15">
       <c r="C66" s="4">
         <v>65</v>
       </c>
@@ -6682,59 +6682,47 @@
         <v>786</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F66" s="20" t="s">
-        <v>296</v>
+        <v>19</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>797</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H66" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J66" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H66" s="19"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="12"/>
     </row>
-    <row r="67" spans="3:14">
+    <row r="67" spans="3:15">
       <c r="C67" s="4">
         <v>66</v>
       </c>
-      <c r="D67" s="18" t="s">
-        <v>799</v>
+      <c r="D67" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J67" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H67" s="19"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="12"/>
     </row>
-    <row r="68" spans="3:14">
+    <row r="68" spans="3:15">
       <c r="C68" s="4">
         <v>67</v>
       </c>
@@ -6742,75 +6730,80 @@
         <v>799</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="G68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H68" s="22"/>
+        <v>235</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>803</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="12"/>
+      <c r="O68" s="11"/>
     </row>
-    <row r="69" spans="3:14">
+    <row r="69" spans="3:15">
       <c r="C69" s="4">
         <v>68</v>
       </c>
-      <c r="D69" s="21" t="s">
-        <v>802</v>
+      <c r="D69" s="18" t="s">
+        <v>799</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="19" t="s">
-        <v>816</v>
-      </c>
-      <c r="I69" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="J69" s="20" t="b">
-        <v>1</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G69" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="14"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="12"/>
     </row>
-    <row r="70" spans="3:14">
+    <row r="70" spans="3:15">
       <c r="C70" s="4">
         <v>69</v>
       </c>
-      <c r="D70" s="18" t="s">
-        <v>799</v>
+      <c r="D70" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G70" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J70" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="12"/>
     </row>
-    <row r="71" spans="3:14">
+    <row r="71" spans="3:15">
       <c r="C71" s="4">
         <v>70</v>
       </c>
@@ -6818,39 +6811,45 @@
         <v>799</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="G71" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H71" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="J71" s="20" t="b">
-        <v>0</v>
+      <c r="H71" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J71" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="12"/>
     </row>
-    <row r="72" spans="3:14" ht="15">
+    <row r="72" spans="3:15">
       <c r="C72" s="4">
         <v>71</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>820</v>
-      </c>
-      <c r="E72" s="16"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
+      <c r="D72" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F72" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="22"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -6858,33 +6857,33 @@
       <c r="M72" s="4"/>
       <c r="N72" s="12"/>
     </row>
-    <row r="73" spans="3:14">
+    <row r="73" spans="3:15">
       <c r="C73" s="4">
         <v>72</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>799</v>
+      <c r="D73" s="21" t="s">
+        <v>802</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+        <v>815</v>
+      </c>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="J73" s="20" t="b">
+        <v>1</v>
+      </c>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="12"/>
     </row>
-    <row r="74" spans="3:14">
+    <row r="74" spans="3:15">
       <c r="C74" s="4">
         <v>73</v>
       </c>
@@ -6894,13 +6893,15 @@
       <c r="E74" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F74" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="G74" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="19"/>
+      <c r="F74" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>803</v>
+      </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -6908,52 +6909,46 @@
       <c r="M74" s="4"/>
       <c r="N74" s="12"/>
     </row>
-    <row r="75" spans="3:14">
+    <row r="75" spans="3:15">
       <c r="C75" s="4">
         <v>74</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>786</v>
+      <c r="D75" s="18" t="s">
+        <v>799</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>814</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J75" s="4" t="b">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="H75" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="I75" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="J75" s="20" t="b">
+        <v>0</v>
       </c>
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="12"/>
     </row>
-    <row r="76" spans="3:14">
+    <row r="76" spans="3:15" ht="15">
       <c r="C76" s="4">
         <v>75</v>
       </c>
-      <c r="D76" s="13" t="s">
-        <v>786</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="G76" s="19" t="s">
-        <v>136</v>
-      </c>
+      <c r="D76" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
@@ -6962,7 +6957,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="12"/>
     </row>
-    <row r="77" spans="3:14">
+    <row r="77" spans="3:15">
       <c r="C77" s="4">
         <v>76</v>
       </c>
@@ -6970,23 +6965,25 @@
         <v>799</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="G77" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
       <c r="N77" s="12"/>
     </row>
-    <row r="78" spans="3:14">
+    <row r="78" spans="3:15">
       <c r="C78" s="4">
         <v>77</v>
       </c>
@@ -6994,10 +6991,10 @@
         <v>799</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="G78" s="19" t="s">
         <v>2</v>
@@ -7005,36 +7002,42 @@
       <c r="H78" s="19"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
       <c r="N78" s="12"/>
     </row>
-    <row r="79" spans="3:14">
+    <row r="79" spans="3:15">
       <c r="C79" s="4">
         <v>78</v>
       </c>
-      <c r="D79" s="18" t="s">
-        <v>799</v>
+      <c r="D79" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
+        <v>814</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J79" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
       <c r="N79" s="12"/>
     </row>
-    <row r="80" spans="3:14">
+    <row r="80" spans="3:15">
       <c r="C80" s="4">
         <v>79</v>
       </c>
@@ -7048,20 +7051,14 @@
         <v>296</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J80" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
+        <v>136</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="3:14">
@@ -7078,17 +7075,11 @@
         <v>295</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="J81" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="20"/>
       <c r="K81" s="20"/>
       <c r="L81" s="20"/>
       <c r="M81" s="20"/>
@@ -7105,14 +7096,14 @@
         <v>272</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="G82" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="22"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="20"/>
       <c r="L82" s="20"/>
       <c r="M82" s="20"/>
@@ -7122,100 +7113,98 @@
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="21" t="s">
-        <v>802</v>
+      <c r="D83" s="18" t="s">
+        <v>799</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>815</v>
-      </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="19" t="s">
-        <v>816</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="J83" s="20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="F83" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G83" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="19"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="3:14">
       <c r="C84" s="4">
         <v>83</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>799</v>
+      <c r="D84" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>805</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F84" s="19" t="s">
+        <v>797</v>
+      </c>
+      <c r="G84" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="19"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="20"/>
-      <c r="M84" s="20"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
       <c r="N84" s="12"/>
     </row>
     <row r="85" spans="3:14">
       <c r="C85" s="4">
         <v>84</v>
       </c>
-      <c r="D85" s="18" t="s">
-        <v>799</v>
+      <c r="D85" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="19" t="s">
-        <v>806</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>798</v>
-      </c>
-      <c r="J85" s="20" t="b">
-        <v>0</v>
-      </c>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
       <c r="N85" s="12"/>
     </row>
-    <row r="86" spans="3:14" ht="15">
+    <row r="86" spans="3:14">
       <c r="C86" s="4">
         <v>85</v>
       </c>
-      <c r="D86" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="20"/>
-      <c r="M86" s="20"/>
+      <c r="D86" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
       <c r="N86" s="12"/>
     </row>
     <row r="87" spans="3:14">
@@ -7228,17 +7217,15 @@
       <c r="E87" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="F87" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
+      <c r="F87" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G87" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
       <c r="M87" s="20"/>
@@ -7248,21 +7235,27 @@
       <c r="C88" s="4">
         <v>87</v>
       </c>
-      <c r="D88" s="18" t="s">
-        <v>799</v>
+      <c r="D88" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F88" s="19" t="s">
-        <v>244</v>
+        <v>272</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>296</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J88" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
       <c r="M88" s="20"/>
@@ -7272,21 +7265,27 @@
       <c r="C89" s="4">
         <v>88</v>
       </c>
-      <c r="D89" s="13" t="s">
-        <v>786</v>
+      <c r="D89" s="18" t="s">
+        <v>799</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="F89" s="20" t="s">
-        <v>296</v>
+      <c r="F89" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+        <v>7</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="J89" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K89" s="20"/>
       <c r="L89" s="20"/>
       <c r="M89" s="20"/>
@@ -7303,12 +7302,12 @@
         <v>272</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>295</v>
+        <v>109</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H90" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="H90" s="22"/>
       <c r="I90" s="20"/>
       <c r="J90" s="20"/>
       <c r="K90" s="20"/>
@@ -7324,17 +7323,17 @@
         <v>799</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F91" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="20"/>
       <c r="L91" s="20"/>
       <c r="M91" s="20"/>
@@ -7344,23 +7343,23 @@
       <c r="C92" s="4">
         <v>91</v>
       </c>
-      <c r="D92" s="18" t="s">
-        <v>799</v>
+      <c r="D92" s="21" t="s">
+        <v>802</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
+        <v>815</v>
+      </c>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="I92" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="J92" s="20" t="b">
+        <v>1</v>
+      </c>
       <c r="K92" s="20"/>
       <c r="L92" s="20"/>
       <c r="M92" s="20"/>
@@ -7370,21 +7369,21 @@
       <c r="C93" s="4">
         <v>92</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>799</v>
+      <c r="D93" s="13" t="s">
+        <v>786</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>244</v>
+        <v>797</v>
       </c>
       <c r="G93" s="19" t="s">
         <v>2</v>
       </c>
       <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="20"/>
       <c r="L93" s="20"/>
       <c r="M93" s="20"/>
@@ -7398,17 +7397,17 @@
         <v>786</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F94" s="20" t="s">
-        <v>296</v>
+        <v>19</v>
+      </c>
+      <c r="F94" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="20"/>
       <c r="L94" s="20"/>
       <c r="M94" s="20"/>
@@ -7422,17 +7421,19 @@
         <v>799</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="F95" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="G95" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="20"/>
+        <v>235</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="20"/>
       <c r="L95" s="20"/>
       <c r="M95" s="20"/>
@@ -7446,41 +7447,41 @@
         <v>799</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H96" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>798</v>
+      </c>
+      <c r="J96" s="20" t="b">
+        <v>0</v>
+      </c>
       <c r="K96" s="20"/>
       <c r="L96" s="20"/>
       <c r="M96" s="20"/>
       <c r="N96" s="12"/>
     </row>
-    <row r="97" spans="3:14">
+    <row r="97" spans="3:14" ht="15">
       <c r="C97" s="4">
         <v>96</v>
       </c>
-      <c r="D97" s="18" t="s">
-        <v>799</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="G97" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="D97" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="E97" s="19"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="20"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="20"/>
       <c r="K97" s="20"/>
       <c r="L97" s="20"/>
       <c r="M97" s="20"/>
@@ -7490,13 +7491,21 @@
       <c r="C98" s="4">
         <v>97</v>
       </c>
-      <c r="D98" s="21"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
+      <c r="D98" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
-      <c r="J98" s="4"/>
+      <c r="J98" s="20"/>
       <c r="K98" s="20"/>
       <c r="L98" s="20"/>
       <c r="M98" s="20"/>
@@ -7506,13 +7515,21 @@
       <c r="C99" s="4">
         <v>98</v>
       </c>
-      <c r="D99" s="21"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
+      <c r="D99" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G99" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="H99" s="19"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="20"/>
       <c r="K99" s="20"/>
       <c r="L99" s="20"/>
       <c r="M99" s="20"/>
@@ -7522,11 +7539,19 @@
       <c r="C100" s="4">
         <v>99</v>
       </c>
-      <c r="D100" s="21"/>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
+      <c r="D100" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F100" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G100" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H100" s="19"/>
       <c r="I100" s="20"/>
       <c r="J100" s="20"/>
       <c r="K100" s="20"/>
@@ -7538,12 +7563,20 @@
       <c r="C101" s="4">
         <v>100</v>
       </c>
-      <c r="D101" s="21"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
+      <c r="D101" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F101" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
       <c r="J101" s="20"/>
       <c r="K101" s="20"/>
       <c r="L101" s="20"/>
@@ -7554,12 +7587,22 @@
       <c r="C102" s="4">
         <v>101</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="20"/>
+      <c r="D102" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="I102" s="19"/>
       <c r="J102" s="20"/>
       <c r="K102" s="20"/>
       <c r="L102" s="20"/>
@@ -7570,12 +7613,20 @@
       <c r="C103" s="4">
         <v>102</v>
       </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
+      <c r="D103" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H103" s="19"/>
-      <c r="I103" s="20"/>
+      <c r="I103" s="19"/>
       <c r="J103" s="20"/>
       <c r="K103" s="20"/>
       <c r="L103" s="20"/>
@@ -7586,10 +7637,18 @@
       <c r="C104" s="4">
         <v>103</v>
       </c>
-      <c r="D104" s="21"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
+      <c r="D104" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="E104" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F104" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="G104" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
@@ -7602,10 +7661,18 @@
       <c r="C105" s="4">
         <v>104</v>
       </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
+      <c r="D105" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F105" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G105" s="19" t="s">
+        <v>137</v>
+      </c>
       <c r="H105" s="19"/>
       <c r="I105" s="20"/>
       <c r="J105" s="20"/>
@@ -7618,13 +7685,21 @@
       <c r="C106" s="4">
         <v>105</v>
       </c>
-      <c r="D106" s="21"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
+      <c r="D106" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H106" s="19"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="20"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
       <c r="K106" s="20"/>
       <c r="L106" s="20"/>
       <c r="M106" s="20"/>
@@ -7634,1262 +7709,364 @@
       <c r="C107" s="4">
         <v>106</v>
       </c>
-      <c r="D107" s="21"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
+      <c r="D107" s="18" t="s">
+        <v>799</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F107" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G107" s="19" t="s">
+        <v>2</v>
+      </c>
       <c r="H107" s="19"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="20"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
       <c r="K107" s="20"/>
       <c r="L107" s="20"/>
       <c r="M107" s="20"/>
       <c r="N107" s="12"/>
     </row>
     <row r="108" spans="3:14">
-      <c r="C108" s="4">
-        <v>107</v>
-      </c>
-      <c r="D108" s="21"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="18"/>
       <c r="E108" s="19"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="12"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
     </row>
     <row r="109" spans="3:14">
-      <c r="C109" s="4">
-        <v>108</v>
-      </c>
-      <c r="D109" s="21"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="18"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="20"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="20"/>
-      <c r="M109" s="20"/>
-      <c r="N109" s="12"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
     </row>
     <row r="110" spans="3:14">
-      <c r="C110" s="4">
-        <v>109</v>
-      </c>
-      <c r="D110" s="21"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="18"/>
       <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="20"/>
-      <c r="M110" s="20"/>
-      <c r="N110" s="12"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" spans="3:14">
-      <c r="C111" s="4">
-        <v>110</v>
-      </c>
-      <c r="D111" s="21"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="18"/>
       <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="20"/>
-      <c r="N111" s="12"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
     </row>
     <row r="112" spans="3:14">
-      <c r="C112" s="4">
-        <v>111</v>
-      </c>
-      <c r="D112" s="21"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="18"/>
       <c r="E112" s="19"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="20"/>
-      <c r="M112" s="20"/>
-      <c r="N112" s="12"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="3:14">
-      <c r="C113" s="4">
-        <v>112</v>
-      </c>
-      <c r="D113" s="21"/>
+    <row r="113" spans="3:12">
+      <c r="C113" s="4"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="19"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="20"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="12"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="3:14">
-      <c r="C114" s="4">
-        <v>113</v>
-      </c>
-      <c r="D114" s="21"/>
+    <row r="114" spans="3:12">
+      <c r="C114" s="4"/>
+      <c r="D114" s="18"/>
       <c r="E114" s="19"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="20"/>
-      <c r="M114" s="20"/>
-      <c r="N114" s="12"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="3:14">
-      <c r="C115" s="4">
-        <v>114</v>
-      </c>
-      <c r="D115" s="21"/>
+    <row r="115" spans="3:12">
+      <c r="C115" s="4"/>
+      <c r="D115" s="18"/>
       <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="12"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="3:14">
-      <c r="C116" s="4">
-        <v>115</v>
-      </c>
-      <c r="D116" s="21"/>
+    <row r="116" spans="3:12">
+      <c r="C116" s="4"/>
+      <c r="D116" s="18"/>
       <c r="E116" s="19"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="20"/>
-      <c r="M116" s="20"/>
-      <c r="N116" s="12"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="3:14">
-      <c r="C117" s="4">
-        <v>116</v>
-      </c>
-      <c r="D117" s="21"/>
+    <row r="117" spans="3:12">
+      <c r="C117" s="4"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="19"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="20"/>
-      <c r="N117" s="12"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
     </row>
-    <row r="118" spans="3:14" ht="15">
-      <c r="C118" s="4">
-        <v>117</v>
-      </c>
-      <c r="D118" s="15"/>
+    <row r="118" spans="3:12">
+      <c r="C118" s="4"/>
+      <c r="D118" s="18"/>
       <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="20"/>
-      <c r="M118" s="20"/>
-      <c r="N118" s="12"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="3:14">
-      <c r="C119" s="4">
-        <v>118</v>
-      </c>
+    <row r="119" spans="3:12">
+      <c r="C119" s="4"/>
       <c r="D119" s="18"/>
       <c r="E119" s="19"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119" s="20"/>
-      <c r="N119" s="12"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="3:14">
-      <c r="C120" s="4">
-        <v>119</v>
-      </c>
-      <c r="D120" s="21"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+    <row r="120" spans="3:12">
+      <c r="C120" s="4"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="20"/>
-      <c r="N120" s="12"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="3:14">
-      <c r="C121" s="4">
-        <v>120</v>
-      </c>
-      <c r="D121" s="21"/>
-      <c r="E121" s="20"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
+    <row r="121" spans="3:12">
+      <c r="C121" s="4"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="20"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="20"/>
-      <c r="M121" s="20"/>
-      <c r="N121" s="12"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="3:14">
-      <c r="C122" s="4">
-        <v>121</v>
-      </c>
-      <c r="D122" s="21"/>
-      <c r="E122" s="20"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="20"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="20"/>
-      <c r="M122" s="20"/>
-      <c r="N122" s="12"/>
+    <row r="122" spans="3:12">
+      <c r="C122" s="4"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="3:14">
-      <c r="C123" s="4">
-        <v>122</v>
-      </c>
-      <c r="D123" s="21"/>
+    <row r="123" spans="3:12">
+      <c r="C123" s="4"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="19"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="20"/>
-      <c r="N123" s="12"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="3:14">
-      <c r="C124" s="4">
-        <v>123</v>
-      </c>
-      <c r="D124" s="21"/>
+    <row r="124" spans="3:12">
+      <c r="C124" s="4"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="19"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="3:14">
-      <c r="C125" s="4">
-        <v>124</v>
-      </c>
-      <c r="D125" s="21"/>
+    <row r="125" spans="3:12">
+      <c r="C125" s="4"/>
+      <c r="D125" s="18"/>
       <c r="E125" s="19"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
+      <c r="F125" s="19"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
     </row>
-    <row r="126" spans="3:14">
-      <c r="C126" s="4">
-        <v>125</v>
-      </c>
-      <c r="D126" s="21"/>
+    <row r="126" spans="3:12">
+      <c r="C126" s="4"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="19"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="3:14">
-      <c r="C127" s="4">
-        <v>126</v>
-      </c>
-      <c r="D127" s="21"/>
+    <row r="127" spans="3:12">
+      <c r="C127" s="4"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="3:14">
-      <c r="C128" s="4">
-        <v>127</v>
-      </c>
-      <c r="D128" s="21"/>
+    <row r="128" spans="3:12">
+      <c r="C128" s="4"/>
+      <c r="D128" s="18"/>
       <c r="E128" s="19"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="3:13">
-      <c r="C129" s="4">
-        <v>128</v>
-      </c>
-      <c r="D129" s="21"/>
+    <row r="129" spans="3:12">
+      <c r="C129" s="4"/>
+      <c r="D129" s="18"/>
       <c r="E129" s="19"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="19"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="3:13">
-      <c r="C130" s="4">
-        <v>129</v>
-      </c>
-      <c r="D130" s="21"/>
+    <row r="130" spans="3:12">
+      <c r="C130" s="4"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="19"/>
-      <c r="F130" s="19"/>
-      <c r="G130" s="19"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="19"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="3:13">
-      <c r="C131" s="4">
-        <v>130</v>
-      </c>
-      <c r="D131" s="21"/>
+    <row r="131" spans="3:12">
+      <c r="C131" s="4"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
-      <c r="H131" s="19"/>
+      <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="3:13">
-      <c r="C132" s="4">
-        <v>131</v>
-      </c>
-      <c r="D132" s="21"/>
+    <row r="132" spans="3:12">
+      <c r="C132" s="4"/>
+      <c r="D132" s="18"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="19"/>
       <c r="H132" s="19"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="3:13">
-      <c r="C133" s="4">
-        <v>132</v>
-      </c>
-      <c r="D133" s="21"/>
+    <row r="133" spans="3:12">
+      <c r="C133" s="4"/>
+      <c r="D133" s="18"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="19"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
       <c r="H133" s="19"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
     </row>
-    <row r="134" spans="3:13">
-      <c r="C134" s="4">
-        <v>133</v>
-      </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="19"/>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
+    <row r="134" spans="3:12">
+      <c r="C134" s="4"/>
+      <c r="D134" s="18"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
     </row>
-    <row r="135" spans="3:13">
-      <c r="C135" s="4">
-        <v>134</v>
-      </c>
+    <row r="135" spans="3:12">
       <c r="D135" s="18"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="19"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="3:13">
-      <c r="C136" s="4">
-        <v>135</v>
-      </c>
-      <c r="D136" s="13"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="19"/>
-      <c r="G136" s="19"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
+    <row r="136" spans="3:12">
+      <c r="D136" s="18"/>
     </row>
-    <row r="137" spans="3:13">
-      <c r="C137" s="4">
-        <v>136</v>
-      </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
+    <row r="137" spans="3:12">
+      <c r="D137" s="18"/>
     </row>
-    <row r="138" spans="3:13">
-      <c r="C138" s="4">
-        <v>137</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="22"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
+    <row r="138" spans="3:12">
+      <c r="D138" s="18"/>
     </row>
-    <row r="139" spans="3:13">
-      <c r="C139" s="4">
-        <v>138</v>
-      </c>
+    <row r="139" spans="3:12">
       <c r="D139" s="18"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="3:13">
-      <c r="C140" s="4">
-        <v>139</v>
-      </c>
+    <row r="140" spans="3:12">
       <c r="D140" s="18"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-    </row>
-    <row r="141" spans="3:13">
-      <c r="C141" s="4">
-        <v>140</v>
-      </c>
-      <c r="D141" s="18"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-    </row>
-    <row r="142" spans="3:13">
-      <c r="C142" s="4">
-        <v>141</v>
-      </c>
-      <c r="D142" s="18"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-    </row>
-    <row r="143" spans="3:13">
-      <c r="C143" s="4">
-        <v>142</v>
-      </c>
-      <c r="D143" s="18"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="19"/>
-      <c r="G143" s="19"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-    </row>
-    <row r="144" spans="3:13">
-      <c r="C144" s="4">
-        <v>143</v>
-      </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-    </row>
-    <row r="145" spans="3:13">
-      <c r="C145" s="4">
-        <v>144</v>
-      </c>
-      <c r="D145" s="18"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-    </row>
-    <row r="146" spans="3:13">
-      <c r="C146" s="4">
-        <v>145</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-    </row>
-    <row r="147" spans="3:13">
-      <c r="C147" s="4">
-        <v>146</v>
-      </c>
-      <c r="D147" s="18"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="19"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-    </row>
-    <row r="148" spans="3:13">
-      <c r="C148" s="4">
-        <v>147</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="19"/>
-      <c r="G148" s="19"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-    </row>
-    <row r="149" spans="3:13">
-      <c r="C149" s="4">
-        <v>148</v>
-      </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="22"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-    </row>
-    <row r="150" spans="3:13">
-      <c r="C150" s="4">
-        <v>149</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="19"/>
-      <c r="H150" s="22"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-    </row>
-    <row r="151" spans="3:13">
-      <c r="C151" s="4">
-        <v>150</v>
-      </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="19"/>
-      <c r="G151" s="19"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-    </row>
-    <row r="152" spans="3:13">
-      <c r="C152" s="4"/>
-      <c r="D152" s="18"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-    </row>
-    <row r="153" spans="3:13">
-      <c r="C153" s="4"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-    </row>
-    <row r="154" spans="3:13">
-      <c r="C154" s="4"/>
-      <c r="D154" s="18"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-      <c r="M154" s="4"/>
-    </row>
-    <row r="155" spans="3:13">
-      <c r="C155" s="4"/>
-      <c r="D155" s="18"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-      <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
-      <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
-      <c r="M155" s="4"/>
-    </row>
-    <row r="156" spans="3:13">
-      <c r="C156" s="4"/>
-      <c r="D156" s="18"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
-      <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
-      <c r="M156" s="4"/>
-    </row>
-    <row r="157" spans="3:13">
-      <c r="C157" s="4"/>
-      <c r="D157" s="18"/>
-      <c r="E157" s="19"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
-      <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
-      <c r="M157" s="4"/>
-    </row>
-    <row r="158" spans="3:13">
-      <c r="C158" s="4"/>
-      <c r="D158" s="18"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
-      <c r="K158" s="4"/>
-      <c r="L158" s="4"/>
-      <c r="M158" s="4"/>
-    </row>
-    <row r="159" spans="3:13">
-      <c r="C159" s="4"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-    </row>
-    <row r="160" spans="3:13">
-      <c r="C160" s="4"/>
-      <c r="D160" s="18"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
-      <c r="K160" s="4"/>
-      <c r="L160" s="4"/>
-      <c r="M160" s="4"/>
-    </row>
-    <row r="161" spans="3:13">
-      <c r="C161" s="4"/>
-      <c r="D161" s="18"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
-      <c r="K161" s="4"/>
-      <c r="L161" s="4"/>
-      <c r="M161" s="4"/>
-    </row>
-    <row r="162" spans="3:13">
-      <c r="C162" s="4"/>
-      <c r="D162" s="18"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="4"/>
-      <c r="J162" s="4"/>
-      <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
-      <c r="M162" s="4"/>
-    </row>
-    <row r="163" spans="3:13">
-      <c r="C163" s="4"/>
-      <c r="D163" s="18"/>
-      <c r="E163" s="19"/>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-    </row>
-    <row r="164" spans="3:13">
-      <c r="C164" s="4"/>
-      <c r="D164" s="18"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-    </row>
-    <row r="165" spans="3:13">
-      <c r="C165" s="4"/>
-      <c r="D165" s="18"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-    </row>
-    <row r="166" spans="3:13">
-      <c r="C166" s="4"/>
-      <c r="D166" s="18"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-    </row>
-    <row r="167" spans="3:13">
-      <c r="C167" s="4"/>
-      <c r="D167" s="18"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-    </row>
-    <row r="168" spans="3:13">
-      <c r="C168" s="4"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-    </row>
-    <row r="169" spans="3:13">
-      <c r="C169" s="4"/>
-      <c r="D169" s="18"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="4"/>
-      <c r="I169" s="4"/>
-      <c r="J169" s="4"/>
-      <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
-    </row>
-    <row r="170" spans="3:13">
-      <c r="C170" s="4"/>
-      <c r="D170" s="18"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-    </row>
-    <row r="171" spans="3:13">
-      <c r="C171" s="4"/>
-      <c r="D171" s="18"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-      <c r="H171" s="19"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="4"/>
-      <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
-    </row>
-    <row r="172" spans="3:13">
-      <c r="C172" s="4"/>
-      <c r="D172" s="18"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="19"/>
-      <c r="G172" s="19"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-    </row>
-    <row r="173" spans="3:13">
-      <c r="C173" s="4"/>
-      <c r="D173" s="18"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-    </row>
-    <row r="174" spans="3:13">
-      <c r="C174" s="4"/>
-      <c r="D174" s="18"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-    </row>
-    <row r="175" spans="3:13">
-      <c r="C175" s="4"/>
-      <c r="D175" s="18"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-    </row>
-    <row r="176" spans="3:13">
-      <c r="C176" s="4"/>
-      <c r="D176" s="18"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="19"/>
-      <c r="H176" s="19"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-    </row>
-    <row r="177" spans="3:12">
-      <c r="C177" s="4"/>
-      <c r="D177" s="18"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="4"/>
-      <c r="G177" s="4"/>
-      <c r="H177" s="19"/>
-      <c r="I177" s="4"/>
-      <c r="J177" s="4"/>
-      <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
-    </row>
-    <row r="178" spans="3:12">
-      <c r="C178" s="4"/>
-      <c r="D178" s="18"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-      <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
-    </row>
-    <row r="179" spans="3:12">
-      <c r="C179" s="4"/>
-      <c r="D179" s="18"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="19"/>
-      <c r="H179" s="19"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-      <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
-    </row>
-    <row r="180" spans="3:12">
-      <c r="C180" s="4"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="4"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-      <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
-    </row>
-    <row r="181" spans="3:12">
-      <c r="C181" s="4"/>
-      <c r="D181" s="18"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="19"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-    </row>
-    <row r="182" spans="3:12">
-      <c r="C182" s="4"/>
-      <c r="D182" s="18"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-    </row>
-    <row r="183" spans="3:12">
-      <c r="C183" s="4"/>
-      <c r="D183" s="18"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="4"/>
-      <c r="J183" s="4"/>
-      <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
-    </row>
-    <row r="184" spans="3:12">
-      <c r="C184" s="4"/>
-      <c r="D184" s="18"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="4"/>
-      <c r="I184" s="4"/>
-      <c r="J184" s="4"/>
-      <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
-    </row>
-    <row r="185" spans="3:12">
-      <c r="C185" s="4"/>
-      <c r="D185" s="18"/>
-      <c r="E185" s="19"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-    </row>
-    <row r="186" spans="3:12">
-      <c r="C186" s="4"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="19"/>
-      <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="4"/>
-      <c r="J186" s="4"/>
-      <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
-    </row>
-    <row r="187" spans="3:12">
-      <c r="C187" s="4"/>
-      <c r="D187" s="18"/>
-      <c r="E187" s="19"/>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="4"/>
-      <c r="I187" s="4"/>
-      <c r="J187" s="4"/>
-      <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
-    </row>
-    <row r="188" spans="3:12">
-      <c r="C188" s="4"/>
-      <c r="D188" s="18"/>
-      <c r="E188" s="19"/>
-      <c r="F188" s="19"/>
-      <c r="G188" s="19"/>
-      <c r="H188" s="19"/>
-      <c r="I188" s="4"/>
-      <c r="J188" s="4"/>
-      <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
-    </row>
-    <row r="189" spans="3:12">
-      <c r="C189" s="4"/>
-      <c r="D189" s="18"/>
-      <c r="E189" s="19"/>
-      <c r="F189" s="4"/>
-      <c r="G189" s="4"/>
-      <c r="H189" s="19"/>
-      <c r="I189" s="4"/>
-      <c r="J189" s="4"/>
-      <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
-    </row>
-    <row r="190" spans="3:12">
-      <c r="C190" s="4"/>
-      <c r="D190" s="18"/>
-      <c r="E190" s="19"/>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
-      <c r="J190" s="4"/>
-      <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
-    </row>
-    <row r="191" spans="3:12">
-      <c r="C191" s="4"/>
-      <c r="D191" s="18"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="4"/>
-      <c r="J191" s="4"/>
-      <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
-    </row>
-    <row r="192" spans="3:12">
-      <c r="C192" s="4"/>
-      <c r="D192" s="18"/>
-      <c r="E192" s="19"/>
-      <c r="F192" s="4"/>
-      <c r="G192" s="4"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="4"/>
-      <c r="J192" s="4"/>
-      <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
-    </row>
-    <row r="193" spans="3:12">
-      <c r="C193" s="4"/>
-      <c r="D193" s="18"/>
-      <c r="E193" s="19"/>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="4"/>
-      <c r="I193" s="4"/>
-      <c r="J193" s="4"/>
-      <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
-    </row>
-    <row r="194" spans="3:12">
-      <c r="C194" s="4"/>
-      <c r="D194" s="18"/>
-      <c r="E194" s="19"/>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="4"/>
-      <c r="J194" s="4"/>
-      <c r="K194" s="4"/>
-      <c r="L194" s="4"/>
-    </row>
-    <row r="195" spans="3:12">
-      <c r="C195" s="4"/>
-      <c r="D195" s="18"/>
-      <c r="E195" s="19"/>
-      <c r="F195" s="4"/>
-      <c r="G195" s="4"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="4"/>
-      <c r="J195" s="4"/>
-      <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
-    </row>
-    <row r="196" spans="3:12">
-      <c r="C196" s="4"/>
-      <c r="D196" s="18"/>
-      <c r="L196" s="4"/>
-    </row>
-    <row r="197" spans="3:12">
-      <c r="D197" s="18"/>
-    </row>
-    <row r="198" spans="3:12">
-      <c r="D198" s="18"/>
-    </row>
-    <row r="199" spans="3:12">
-      <c r="D199" s="18"/>
-    </row>
-    <row r="200" spans="3:12">
-      <c r="D200" s="18"/>
-    </row>
-    <row r="201" spans="3:12">
-      <c r="D201" s="18"/>
-    </row>
-    <row r="202" spans="3:12">
-      <c r="D202" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N123">
+  <conditionalFormatting sqref="N2:N107">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -8898,16 +8075,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D202 D129:D133 D120 D101:D117 D73:D74 D166 D169 D172 D175 D178 D181 D184 D187 D190 D193 D196 D199 D139:D164 D70:D71 D67:D68 D63:D65 D77:D79 D81:D82 D84:D85 D87:D88 D90:D93 D95:D97 D7:D8 D36:D44 D46:D47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D140 D110 D113 D116 D119 D122 D125 D128 D131 D134 D137 D105:D107 D100:D103 D89:D91 D95:D96 D74:D75 D71:D72 D46:D47 D68:D69 D77:D78 D7:D8 D36:D44 D63:D65 D81:D83 D86:D87 D98">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F133">
       <formula1>OFFSET(INDIRECT($E3),0,0,COUNTA(INDIRECT(E3&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G133">
       <formula1>INDIRECT(SUBSTITUTE(E3&amp;F3," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E195">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E133">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
